--- a/data/pca/factorExposure/factorExposure_2014-10-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.01882316520324686</v>
+        <v>-0.01780239991573409</v>
       </c>
       <c r="C2">
-        <v>-0.09756572476408276</v>
+        <v>0.0737104442799212</v>
       </c>
       <c r="D2">
-        <v>0.03397084965535247</v>
+        <v>0.02267617892871965</v>
       </c>
       <c r="E2">
-        <v>0.1655397288598234</v>
+        <v>0.1020455055021069</v>
       </c>
       <c r="F2">
-        <v>-0.2007150553552531</v>
+        <v>0.1282866614975576</v>
       </c>
       <c r="G2">
-        <v>0.1017246672978509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.06138886215688594</v>
+      </c>
+      <c r="H2">
+        <v>-0.03462946568721528</v>
+      </c>
+      <c r="I2">
+        <v>0.002005749533528707</v>
+      </c>
+      <c r="J2">
+        <v>-0.1952017204104666</v>
+      </c>
+      <c r="K2">
+        <v>-0.09845688036186383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.04550334883270946</v>
+        <v>-0.02295768383296799</v>
       </c>
       <c r="C4">
-        <v>-0.1612330985428697</v>
+        <v>0.1527005575924564</v>
       </c>
       <c r="D4">
-        <v>-0.01764879753763364</v>
+        <v>0.05510622439726144</v>
       </c>
       <c r="E4">
-        <v>0.08101021070291727</v>
+        <v>-0.01076338163697913</v>
       </c>
       <c r="F4">
-        <v>0.04920653389911381</v>
+        <v>0.09345686412896997</v>
       </c>
       <c r="G4">
-        <v>0.01866528455635975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.02666473494455212</v>
+      </c>
+      <c r="H4">
+        <v>-0.1018050489626609</v>
+      </c>
+      <c r="I4">
+        <v>-0.02074493604715161</v>
+      </c>
+      <c r="J4">
+        <v>-0.1513008244799552</v>
+      </c>
+      <c r="K4">
+        <v>0.0745914325147157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03740107999442672</v>
+        <v>-0.04034626716185186</v>
       </c>
       <c r="C6">
-        <v>-0.06689066330359004</v>
+        <v>0.08312445798383884</v>
       </c>
       <c r="D6">
-        <v>-0.02188761379025559</v>
+        <v>0.01797535043977263</v>
       </c>
       <c r="E6">
-        <v>0.1181863316530511</v>
+        <v>0.06612000771304358</v>
       </c>
       <c r="F6">
-        <v>-0.007846290253565508</v>
+        <v>0.06470415707085721</v>
       </c>
       <c r="G6">
-        <v>-0.01881384940978989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04921249408715041</v>
+      </c>
+      <c r="H6">
+        <v>-0.04547982198388289</v>
+      </c>
+      <c r="I6">
+        <v>0.09332066120021104</v>
+      </c>
+      <c r="J6">
+        <v>-0.0318381486576537</v>
+      </c>
+      <c r="K6">
+        <v>-0.04994176572308398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.008445015515890351</v>
+        <v>-0.01326006928170561</v>
       </c>
       <c r="C7">
-        <v>-0.05208830183119956</v>
+        <v>0.06721950981370835</v>
       </c>
       <c r="D7">
-        <v>-0.0081385957504444</v>
+        <v>0.01675276432404911</v>
       </c>
       <c r="E7">
-        <v>0.07274789116123974</v>
+        <v>-0.01117010958448352</v>
       </c>
       <c r="F7">
-        <v>0.01525446128927968</v>
+        <v>0.03578209895717722</v>
       </c>
       <c r="G7">
-        <v>0.02837819270483099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.05908996326903532</v>
+      </c>
+      <c r="H7">
+        <v>-0.09290901854157332</v>
+      </c>
+      <c r="I7">
+        <v>0.01099626794568179</v>
+      </c>
+      <c r="J7">
+        <v>-0.05133573885183845</v>
+      </c>
+      <c r="K7">
+        <v>0.001128477723083866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.005625205733294222</v>
+        <v>0.001471856033818618</v>
       </c>
       <c r="C8">
-        <v>-0.07235813696721308</v>
+        <v>0.06813328266343134</v>
       </c>
       <c r="D8">
-        <v>-0.01228249524222636</v>
+        <v>0.03942800699459091</v>
       </c>
       <c r="E8">
-        <v>0.08837625029908758</v>
+        <v>0.01944158219856435</v>
       </c>
       <c r="F8">
-        <v>-0.02058458358695126</v>
+        <v>0.06015276846569492</v>
       </c>
       <c r="G8">
-        <v>0.06756226875277162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03199235482591181</v>
+      </c>
+      <c r="H8">
+        <v>-0.04907187503660509</v>
+      </c>
+      <c r="I8">
+        <v>-0.006868933113060317</v>
+      </c>
+      <c r="J8">
+        <v>-0.01348324484178992</v>
+      </c>
+      <c r="K8">
+        <v>0.01031235130233544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.02623627087181683</v>
+        <v>-0.0151272755188749</v>
       </c>
       <c r="C9">
-        <v>-0.1334200792722002</v>
+        <v>0.1158188898696843</v>
       </c>
       <c r="D9">
-        <v>-0.01681226680697248</v>
+        <v>0.03662238652160743</v>
       </c>
       <c r="E9">
-        <v>0.05998754507756773</v>
+        <v>0.00640942973495597</v>
       </c>
       <c r="F9">
-        <v>0.02881734407202165</v>
+        <v>0.0445857621501588</v>
       </c>
       <c r="G9">
-        <v>-0.02088741397296775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.008290076518433996</v>
+      </c>
+      <c r="H9">
+        <v>-0.09189398653392418</v>
+      </c>
+      <c r="I9">
+        <v>0.01718129382774125</v>
+      </c>
+      <c r="J9">
+        <v>-0.07221254318626553</v>
+      </c>
+      <c r="K9">
+        <v>0.05669009237600708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2709975414009537</v>
+        <v>-0.2508663791021024</v>
       </c>
       <c r="C10">
-        <v>0.1285890912368828</v>
+        <v>-0.104039333641425</v>
       </c>
       <c r="D10">
-        <v>0.02138523035445953</v>
+        <v>-0.002381191802140951</v>
       </c>
       <c r="E10">
-        <v>-0.02122800489226841</v>
+        <v>0.01110631250757918</v>
       </c>
       <c r="F10">
-        <v>0.03482057192173989</v>
+        <v>-0.003428645322155504</v>
       </c>
       <c r="G10">
-        <v>-0.0213994501149304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02151060014526154</v>
+      </c>
+      <c r="H10">
+        <v>-0.06283707543159391</v>
+      </c>
+      <c r="I10">
+        <v>-0.1650658035117782</v>
+      </c>
+      <c r="J10">
+        <v>0.08945939322589089</v>
+      </c>
+      <c r="K10">
+        <v>0.04544902783368596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01583177393218011</v>
+        <v>-0.01660443302936499</v>
       </c>
       <c r="C11">
-        <v>-0.06591653355572241</v>
+        <v>0.08208009176158274</v>
       </c>
       <c r="D11">
-        <v>-0.01361483564519525</v>
+        <v>0.02915953836136193</v>
       </c>
       <c r="E11">
-        <v>0.03164132886730456</v>
+        <v>-0.008617062341513821</v>
       </c>
       <c r="F11">
-        <v>0.05708858522502646</v>
+        <v>0.006669777249466049</v>
       </c>
       <c r="G11">
-        <v>-0.03497439461025592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02569799972247444</v>
+      </c>
+      <c r="H11">
+        <v>-0.03250776582676069</v>
+      </c>
+      <c r="I11">
+        <v>0.009835813598528609</v>
+      </c>
+      <c r="J11">
+        <v>0.0306937415155625</v>
+      </c>
+      <c r="K11">
+        <v>0.03818058070576105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.0129672909931118</v>
+        <v>-0.01674909615883152</v>
       </c>
       <c r="C12">
-        <v>-0.06311126134962249</v>
+        <v>0.06338703662472389</v>
       </c>
       <c r="D12">
-        <v>-0.01491857307901062</v>
+        <v>0.01750368023501618</v>
       </c>
       <c r="E12">
-        <v>0.0250205012490973</v>
+        <v>0.01696488480620573</v>
       </c>
       <c r="F12">
-        <v>0.02864354444469052</v>
+        <v>-0.00221471940506729</v>
       </c>
       <c r="G12">
-        <v>-0.06536671223878208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03357912016973961</v>
+      </c>
+      <c r="H12">
+        <v>-0.03339542393107376</v>
+      </c>
+      <c r="I12">
+        <v>0.01012328831744735</v>
+      </c>
+      <c r="J12">
+        <v>0.01032941358565841</v>
+      </c>
+      <c r="K12">
+        <v>0.04230283004808134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0262666083446144</v>
+        <v>-0.006707393213712009</v>
       </c>
       <c r="C13">
-        <v>-0.09983383546834824</v>
+        <v>0.1106957089528565</v>
       </c>
       <c r="D13">
-        <v>-0.02855548705075403</v>
+        <v>0.03209010572101999</v>
       </c>
       <c r="E13">
-        <v>0.1384166036972393</v>
+        <v>0.1458255463102869</v>
       </c>
       <c r="F13">
-        <v>0.03376151296321316</v>
+        <v>0.09837671539865459</v>
       </c>
       <c r="G13">
-        <v>-0.1152155126582637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.09657151842463876</v>
+      </c>
+      <c r="H13">
+        <v>-0.09640615150792013</v>
+      </c>
+      <c r="I13">
+        <v>-0.193295729115844</v>
+      </c>
+      <c r="J13">
+        <v>0.1589985814556969</v>
+      </c>
+      <c r="K13">
+        <v>-0.06273340985903143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01635411618617608</v>
+        <v>-0.01822727856058325</v>
       </c>
       <c r="C14">
-        <v>-0.05706137979067763</v>
+        <v>0.07413681133370147</v>
       </c>
       <c r="D14">
-        <v>-0.006241239334085855</v>
+        <v>0.03769020020019161</v>
       </c>
       <c r="E14">
-        <v>0.06505221421041217</v>
+        <v>0.0565688134996158</v>
       </c>
       <c r="F14">
-        <v>0.002732478055009746</v>
+        <v>0.03732702187147635</v>
       </c>
       <c r="G14">
-        <v>-0.05224975784502915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.08689895470726594</v>
+      </c>
+      <c r="H14">
+        <v>-0.2090921307632584</v>
+      </c>
+      <c r="I14">
+        <v>0.04143931042159689</v>
+      </c>
+      <c r="J14">
+        <v>0.1106346895746411</v>
+      </c>
+      <c r="K14">
+        <v>-0.1334490483308543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.009013106640887308</v>
+        <v>-0.001267100653915518</v>
       </c>
       <c r="C15">
-        <v>-0.0812229030523236</v>
+        <v>0.07851565147227323</v>
       </c>
       <c r="D15">
-        <v>-0.01100163235975608</v>
+        <v>0.02749700332153112</v>
       </c>
       <c r="E15">
-        <v>0.1110037490089966</v>
+        <v>0.009977445476137494</v>
       </c>
       <c r="F15">
-        <v>0.0142965375562342</v>
+        <v>0.05229629920705284</v>
       </c>
       <c r="G15">
-        <v>-0.009500028398690684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.04796999704547533</v>
+      </c>
+      <c r="H15">
+        <v>-0.07162283782686642</v>
+      </c>
+      <c r="I15">
+        <v>0.0263351231201213</v>
+      </c>
+      <c r="J15">
+        <v>0.04824342189399736</v>
+      </c>
+      <c r="K15">
+        <v>-0.002311567388016638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01779149931174809</v>
+        <v>-0.01620877489610987</v>
       </c>
       <c r="C16">
-        <v>-0.06282675697717019</v>
+        <v>0.06768047317297432</v>
       </c>
       <c r="D16">
-        <v>-0.004770846649174074</v>
+        <v>0.0204909782291902</v>
       </c>
       <c r="E16">
-        <v>0.03107961288428498</v>
+        <v>-0.001970006625189419</v>
       </c>
       <c r="F16">
-        <v>0.03263218057720295</v>
+        <v>0.007796753447068631</v>
       </c>
       <c r="G16">
-        <v>-0.03760140581968174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02253929999745061</v>
+      </c>
+      <c r="H16">
+        <v>-0.02602769877193272</v>
+      </c>
+      <c r="I16">
+        <v>0.01244678373239181</v>
+      </c>
+      <c r="J16">
+        <v>0.01234904748680376</v>
+      </c>
+      <c r="K16">
+        <v>0.0267665790809667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01727325245587341</v>
+        <v>-0.01317635172449132</v>
       </c>
       <c r="C20">
-        <v>-0.07830282962389867</v>
+        <v>0.08289816129989613</v>
       </c>
       <c r="D20">
-        <v>0.006532362967238218</v>
+        <v>0.01511476109608272</v>
       </c>
       <c r="E20">
-        <v>0.06963788826106571</v>
+        <v>-0.01816415313616153</v>
       </c>
       <c r="F20">
-        <v>0.06944706130046667</v>
+        <v>0.03188698331132969</v>
       </c>
       <c r="G20">
-        <v>-0.04553195791182977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.06020954217827572</v>
+      </c>
+      <c r="H20">
+        <v>-0.0701049038983296</v>
+      </c>
+      <c r="I20">
+        <v>0.01929964158071074</v>
+      </c>
+      <c r="J20">
+        <v>-0.01573461862645436</v>
+      </c>
+      <c r="K20">
+        <v>0.01585463140890371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01610997512119062</v>
+        <v>-0.0148809947334212</v>
       </c>
       <c r="C21">
-        <v>-0.1035635121006075</v>
+        <v>0.08544996402458679</v>
       </c>
       <c r="D21">
-        <v>0.03180014016450549</v>
+        <v>0.02054379427879011</v>
       </c>
       <c r="E21">
-        <v>0.04183356897420235</v>
+        <v>0.08810292967228577</v>
       </c>
       <c r="F21">
-        <v>-0.03512785890090219</v>
+        <v>0.008506073471793598</v>
       </c>
       <c r="G21">
-        <v>-0.04231662785665587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.003550044681310396</v>
+      </c>
+      <c r="H21">
+        <v>-0.1499595665412979</v>
+      </c>
+      <c r="I21">
+        <v>-0.03640168266185938</v>
+      </c>
+      <c r="J21">
+        <v>0.04128906856879096</v>
+      </c>
+      <c r="K21">
+        <v>0.017176315850136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.0506954757589979</v>
+        <v>-0.006727257560853795</v>
       </c>
       <c r="C22">
-        <v>-0.1381680937260081</v>
+        <v>0.1483738395638455</v>
       </c>
       <c r="D22">
-        <v>0.1095257851965063</v>
+        <v>0.008787274182637183</v>
       </c>
       <c r="E22">
-        <v>0.235767684575566</v>
+        <v>0.03756631279706376</v>
       </c>
       <c r="F22">
-        <v>-0.05482054818027119</v>
+        <v>0.4597104389102261</v>
       </c>
       <c r="G22">
-        <v>0.2973832239858182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1832660196307073</v>
+      </c>
+      <c r="H22">
+        <v>0.3370875992339213</v>
+      </c>
+      <c r="I22">
+        <v>-0.03993270303299676</v>
+      </c>
+      <c r="J22">
+        <v>0.2157777086870737</v>
+      </c>
+      <c r="K22">
+        <v>0.0378261921413939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0505439434126734</v>
+        <v>-0.01099280443346262</v>
       </c>
       <c r="C23">
-        <v>-0.1389202047192445</v>
+        <v>0.1521345932368878</v>
       </c>
       <c r="D23">
-        <v>0.1090114309756886</v>
+        <v>0.006890624769504801</v>
       </c>
       <c r="E23">
-        <v>0.2326222815334698</v>
+        <v>0.03867579964392814</v>
       </c>
       <c r="F23">
-        <v>-0.05427299308681004</v>
+        <v>0.4464733745028474</v>
       </c>
       <c r="G23">
-        <v>0.2951877801500268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1775923018393794</v>
+      </c>
+      <c r="H23">
+        <v>0.3146917098486383</v>
+      </c>
+      <c r="I23">
+        <v>-0.04033578147284649</v>
+      </c>
+      <c r="J23">
+        <v>0.2036908089341764</v>
+      </c>
+      <c r="K23">
+        <v>0.04614970627774399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.01161482895451017</v>
+        <v>-0.01740760418152336</v>
       </c>
       <c r="C24">
-        <v>-0.07763609374407415</v>
+        <v>0.07651609112603318</v>
       </c>
       <c r="D24">
-        <v>-0.02794327442665612</v>
+        <v>0.03422651030267346</v>
       </c>
       <c r="E24">
-        <v>0.02910552579726973</v>
+        <v>-0.00560296368603644</v>
       </c>
       <c r="F24">
-        <v>0.04232904419544284</v>
+        <v>0.005573778184080702</v>
       </c>
       <c r="G24">
-        <v>-0.04960024479417434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03004311229033138</v>
+      </c>
+      <c r="H24">
+        <v>-0.04137408471882367</v>
+      </c>
+      <c r="I24">
+        <v>0.0104107386361821</v>
+      </c>
+      <c r="J24">
+        <v>0.01371919867818961</v>
+      </c>
+      <c r="K24">
+        <v>0.04322689292907261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0148427007016586</v>
+        <v>-0.02175853130997098</v>
       </c>
       <c r="C25">
-        <v>-0.07018877120659459</v>
+        <v>0.0735517564586005</v>
       </c>
       <c r="D25">
-        <v>-0.005244552220717639</v>
+        <v>0.02279165664845038</v>
       </c>
       <c r="E25">
-        <v>0.02750266963790817</v>
+        <v>-0.005715933581249606</v>
       </c>
       <c r="F25">
-        <v>0.04893334394321849</v>
+        <v>0.00968034453163422</v>
       </c>
       <c r="G25">
-        <v>-0.04641534565315616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03151802581773248</v>
+      </c>
+      <c r="H25">
+        <v>-0.03421152523027289</v>
+      </c>
+      <c r="I25">
+        <v>-0.001004063228871511</v>
+      </c>
+      <c r="J25">
+        <v>0.0277670318718073</v>
+      </c>
+      <c r="K25">
+        <v>0.03080842330725525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01755072225626651</v>
+        <v>-0.02499357700589086</v>
       </c>
       <c r="C26">
-        <v>-0.05803963722016336</v>
+        <v>0.06484138399910536</v>
       </c>
       <c r="D26">
-        <v>-0.02919510275252325</v>
+        <v>0.05267901997395973</v>
       </c>
       <c r="E26">
-        <v>0.03905524537333528</v>
+        <v>-1.402142939806404e-05</v>
       </c>
       <c r="F26">
-        <v>-0.001412287031627753</v>
+        <v>0.002010039302645328</v>
       </c>
       <c r="G26">
-        <v>-0.03176382855154315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.004787286234676277</v>
+      </c>
+      <c r="H26">
+        <v>-0.1030444610707053</v>
+      </c>
+      <c r="I26">
+        <v>0.04319977035004769</v>
+      </c>
+      <c r="J26">
+        <v>-0.08557031432852318</v>
+      </c>
+      <c r="K26">
+        <v>0.07519291277751242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3508944548899901</v>
+        <v>-0.318662155596112</v>
       </c>
       <c r="C28">
-        <v>0.1375863698033273</v>
+        <v>-0.1157755496958257</v>
       </c>
       <c r="D28">
-        <v>0.02446655970466573</v>
+        <v>-0.02644943145156689</v>
       </c>
       <c r="E28">
-        <v>-0.08611751468724821</v>
+        <v>0.003612764569025219</v>
       </c>
       <c r="F28">
-        <v>-0.02406591689201147</v>
+        <v>-0.002771006101896212</v>
       </c>
       <c r="G28">
-        <v>-0.01783439654883836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1102858959636869</v>
+      </c>
+      <c r="H28">
+        <v>-0.08448988389579049</v>
+      </c>
+      <c r="I28">
+        <v>-0.1881588703490816</v>
+      </c>
+      <c r="J28">
+        <v>-0.03316072271955813</v>
+      </c>
+      <c r="K28">
+        <v>-0.007538289148647863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.01771882918107847</v>
+        <v>-0.0131069522531057</v>
       </c>
       <c r="C29">
-        <v>-0.05439916223288908</v>
+        <v>0.07617573067227737</v>
       </c>
       <c r="D29">
-        <v>-0.01023629193409696</v>
+        <v>0.04084375569184522</v>
       </c>
       <c r="E29">
-        <v>0.112478446597308</v>
+        <v>0.0757120612648081</v>
       </c>
       <c r="F29">
-        <v>0.03229930987412792</v>
+        <v>0.06945123575517458</v>
       </c>
       <c r="G29">
-        <v>-0.07752284119615432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1429910468081878</v>
+      </c>
+      <c r="H29">
+        <v>-0.2991712929897634</v>
+      </c>
+      <c r="I29">
+        <v>0.04944087753438951</v>
+      </c>
+      <c r="J29">
+        <v>0.164963282268436</v>
+      </c>
+      <c r="K29">
+        <v>-0.2481164698536129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.04940512314813017</v>
+        <v>-0.028809915449502</v>
       </c>
       <c r="C30">
-        <v>-0.1740962899120776</v>
+        <v>0.1513828818109954</v>
       </c>
       <c r="D30">
-        <v>-0.03081652662997478</v>
+        <v>0.05021940904352</v>
       </c>
       <c r="E30">
-        <v>0.08467013878976526</v>
+        <v>0.005107387403728768</v>
       </c>
       <c r="F30">
-        <v>0.01323768660977625</v>
+        <v>0.07349948590575629</v>
       </c>
       <c r="G30">
-        <v>0.04355909734495188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01779347731832637</v>
+      </c>
+      <c r="H30">
+        <v>-0.01339223075160076</v>
+      </c>
+      <c r="I30">
+        <v>0.039499552347704</v>
+      </c>
+      <c r="J30">
+        <v>-0.08447901702020988</v>
+      </c>
+      <c r="K30">
+        <v>0.02757137443000667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003432685921083929</v>
+        <v>-0.01293243655560158</v>
       </c>
       <c r="C31">
-        <v>-0.09381037347959087</v>
+        <v>0.09533357157772214</v>
       </c>
       <c r="D31">
-        <v>-0.03318765105674882</v>
+        <v>0.03612263738989981</v>
       </c>
       <c r="E31">
-        <v>-0.04220756976717593</v>
+        <v>-0.003347925780998968</v>
       </c>
       <c r="F31">
-        <v>-0.01300913289520375</v>
+        <v>-0.0204004227830616</v>
       </c>
       <c r="G31">
-        <v>-0.0005376238188532131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04737106588391844</v>
+      </c>
+      <c r="H31">
+        <v>-0.03933824381898036</v>
+      </c>
+      <c r="I31">
+        <v>0.004804699562773744</v>
+      </c>
+      <c r="J31">
+        <v>0.04635977112746233</v>
+      </c>
+      <c r="K31">
+        <v>0.02180345954713999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04123584669041425</v>
+        <v>-0.02421632333240229</v>
       </c>
       <c r="C32">
-        <v>-0.08479472728045503</v>
+        <v>0.0657419440648631</v>
       </c>
       <c r="D32">
-        <v>0.02224814187914884</v>
+        <v>0.01758530395669101</v>
       </c>
       <c r="E32">
-        <v>0.1606302820363537</v>
+        <v>0.09862473815316899</v>
       </c>
       <c r="F32">
-        <v>-0.04351867105053685</v>
+        <v>0.09653134892341414</v>
       </c>
       <c r="G32">
-        <v>-0.02011272212696672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02730287049406048</v>
+      </c>
+      <c r="H32">
+        <v>-0.1529985448813207</v>
+      </c>
+      <c r="I32">
+        <v>-0.247030866416103</v>
+      </c>
+      <c r="J32">
+        <v>-0.02601873942902154</v>
+      </c>
+      <c r="K32">
+        <v>-0.1803098378068996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01950802897413166</v>
+        <v>-0.01763497488026743</v>
       </c>
       <c r="C33">
-        <v>-0.08886509708160192</v>
+        <v>0.10805410494175</v>
       </c>
       <c r="D33">
-        <v>-0.03075712731586063</v>
+        <v>0.03416062715062484</v>
       </c>
       <c r="E33">
-        <v>0.05230749760556572</v>
+        <v>0.006460200909069463</v>
       </c>
       <c r="F33">
-        <v>0.01497051285339942</v>
+        <v>0.036785229035395</v>
       </c>
       <c r="G33">
-        <v>-0.03405383841902863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03190300215213303</v>
+      </c>
+      <c r="H33">
+        <v>-0.06231635898447591</v>
+      </c>
+      <c r="I33">
+        <v>-0.01257003787939108</v>
+      </c>
+      <c r="J33">
+        <v>0.003977296966040161</v>
+      </c>
+      <c r="K33">
+        <v>0.02392068149200717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.007606378517418804</v>
+        <v>-0.01632597811479875</v>
       </c>
       <c r="C34">
-        <v>-0.05628784629539323</v>
+        <v>0.05464716801991188</v>
       </c>
       <c r="D34">
-        <v>-0.01003641767461129</v>
+        <v>0.01713485459101433</v>
       </c>
       <c r="E34">
-        <v>0.03374882418298837</v>
+        <v>0.003337160722671064</v>
       </c>
       <c r="F34">
-        <v>0.01759314556447972</v>
+        <v>0.002846733279236065</v>
       </c>
       <c r="G34">
-        <v>-0.03861406943348048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0262399974497806</v>
+      </c>
+      <c r="H34">
+        <v>-0.009109980314933319</v>
+      </c>
+      <c r="I34">
+        <v>0.002471286382550502</v>
+      </c>
+      <c r="J34">
+        <v>0.01319895193477852</v>
+      </c>
+      <c r="K34">
+        <v>0.03632113481130603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.00336121067845893</v>
+        <v>-0.007996901238617933</v>
       </c>
       <c r="C35">
-        <v>-0.01130718535800247</v>
+        <v>0.03629601286779418</v>
       </c>
       <c r="D35">
-        <v>0.00125961799370079</v>
+        <v>0.0149196194598427</v>
       </c>
       <c r="E35">
-        <v>0.02274199576091727</v>
+        <v>0.01896178099530352</v>
       </c>
       <c r="F35">
-        <v>0.01160743326732549</v>
+        <v>0.02544111784549434</v>
       </c>
       <c r="G35">
-        <v>-0.01594152544615096</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.0557678545986643</v>
+      </c>
+      <c r="H35">
+        <v>-0.1510353279924263</v>
+      </c>
+      <c r="I35">
+        <v>0.002682911597948812</v>
+      </c>
+      <c r="J35">
+        <v>0.140710959256796</v>
+      </c>
+      <c r="K35">
+        <v>-0.1256531134311968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.01263105512369588</v>
+        <v>-0.01519312134464752</v>
       </c>
       <c r="C36">
-        <v>-0.04988831693246608</v>
+        <v>0.05046556667723014</v>
       </c>
       <c r="D36">
-        <v>-0.03324534929393665</v>
+        <v>0.04026167628315527</v>
       </c>
       <c r="E36">
-        <v>0.03662504140175183</v>
+        <v>0.004805407517010292</v>
       </c>
       <c r="F36">
-        <v>0.005515169100718543</v>
+        <v>0.01742563983719387</v>
       </c>
       <c r="G36">
-        <v>-0.02126131482927645</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01083671531050876</v>
+      </c>
+      <c r="H36">
+        <v>-0.06760550666570325</v>
+      </c>
+      <c r="I36">
+        <v>0.01618088736644898</v>
+      </c>
+      <c r="J36">
+        <v>-0.03428286203626753</v>
+      </c>
+      <c r="K36">
+        <v>0.05660615895770812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02459745657465056</v>
+        <v>-0.01359411536351823</v>
       </c>
       <c r="C38">
-        <v>-0.04728041910679322</v>
+        <v>0.06355407256094538</v>
       </c>
       <c r="D38">
-        <v>-0.02519042078539907</v>
+        <v>0.03172308603100025</v>
       </c>
       <c r="E38">
-        <v>0.03603651446381731</v>
+        <v>-0.02306916226637776</v>
       </c>
       <c r="F38">
-        <v>0.02197534567586694</v>
+        <v>0.03566752911558468</v>
       </c>
       <c r="G38">
-        <v>-0.003428367118267241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.006743672379839368</v>
+      </c>
+      <c r="H38">
+        <v>-0.07651154760823099</v>
+      </c>
+      <c r="I38">
+        <v>-0.05510477858633285</v>
+      </c>
+      <c r="J38">
+        <v>0.03008367740579186</v>
+      </c>
+      <c r="K38">
+        <v>0.0615258279946296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.01216201096889056</v>
+        <v>-0.01784356779781982</v>
       </c>
       <c r="C39">
-        <v>-0.136305944630883</v>
+        <v>0.1322248236523395</v>
       </c>
       <c r="D39">
-        <v>-0.01880225465038334</v>
+        <v>0.04546750936698109</v>
       </c>
       <c r="E39">
-        <v>0.07381473465364627</v>
+        <v>0.01020116381352034</v>
       </c>
       <c r="F39">
-        <v>0.04653361853566294</v>
+        <v>0.02482092587756921</v>
       </c>
       <c r="G39">
-        <v>-0.04780195013395053</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04519207895081786</v>
+      </c>
+      <c r="H39">
+        <v>-0.03704200734363509</v>
+      </c>
+      <c r="I39">
+        <v>0.06158038091958849</v>
+      </c>
+      <c r="J39">
+        <v>-0.01166968626712228</v>
+      </c>
+      <c r="K39">
+        <v>0.04993290309242789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.00089754762072198</v>
+        <v>-0.01502149064982083</v>
       </c>
       <c r="C40">
-        <v>-0.03216882815034027</v>
+        <v>0.06095019987868765</v>
       </c>
       <c r="D40">
-        <v>-0.01561110662846369</v>
+        <v>0.02805733588836496</v>
       </c>
       <c r="E40">
-        <v>0.1499211269390643</v>
+        <v>0.06247080367298147</v>
       </c>
       <c r="F40">
-        <v>0.01313100395107786</v>
+        <v>0.09991939706890308</v>
       </c>
       <c r="G40">
-        <v>0.0006266351219372643</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1224866191202783</v>
+      </c>
+      <c r="H40">
+        <v>-0.005117557867690198</v>
+      </c>
+      <c r="I40">
+        <v>-0.05917278037800521</v>
+      </c>
+      <c r="J40">
+        <v>0.2910249437809302</v>
+      </c>
+      <c r="K40">
+        <v>0.06832897480605228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.008249086507903538</v>
+        <v>-0.02106093845902744</v>
       </c>
       <c r="C41">
-        <v>-0.01813675080184155</v>
+        <v>0.04823004346906888</v>
       </c>
       <c r="D41">
-        <v>0.004448719496373112</v>
+        <v>0.01050227478886046</v>
       </c>
       <c r="E41">
-        <v>-0.009355821233230373</v>
+        <v>-0.005704943420584481</v>
       </c>
       <c r="F41">
-        <v>-0.006664300235686921</v>
+        <v>-0.008753656413979145</v>
       </c>
       <c r="G41">
-        <v>0.00839281340396629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01074630026528115</v>
+      </c>
+      <c r="H41">
+        <v>-0.03973620391182958</v>
+      </c>
+      <c r="I41">
+        <v>-0.03055481506191995</v>
+      </c>
+      <c r="J41">
+        <v>0.05971730872965466</v>
+      </c>
+      <c r="K41">
+        <v>-0.003106261534479255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005225916640528986</v>
+        <v>-0.01690573965557106</v>
       </c>
       <c r="C43">
-        <v>-0.02104580938446618</v>
+        <v>0.04523026935180813</v>
       </c>
       <c r="D43">
-        <v>-0.005753951697175829</v>
+        <v>0.02602199566295661</v>
       </c>
       <c r="E43">
-        <v>0.012562313751931</v>
+        <v>-0.01387708661480057</v>
       </c>
       <c r="F43">
-        <v>0.02432936674198482</v>
+        <v>0.007850782084784746</v>
       </c>
       <c r="G43">
-        <v>-7.436246305073191e-06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01485901867613086</v>
+      </c>
+      <c r="H43">
+        <v>-0.05435687206788437</v>
+      </c>
+      <c r="I43">
+        <v>-0.002777292449343456</v>
+      </c>
+      <c r="J43">
+        <v>0.04739619250671561</v>
+      </c>
+      <c r="K43">
+        <v>-0.001015271009156576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02731607492757123</v>
+        <v>-0.01102706220079202</v>
       </c>
       <c r="C44">
-        <v>-0.08190964499363487</v>
+        <v>0.09030251362385038</v>
       </c>
       <c r="D44">
-        <v>0.008423185002535106</v>
+        <v>0.04651346699608699</v>
       </c>
       <c r="E44">
-        <v>0.1089745735602725</v>
+        <v>0.00762140124008935</v>
       </c>
       <c r="F44">
-        <v>0.02818928793309586</v>
+        <v>0.09092703950441677</v>
       </c>
       <c r="G44">
-        <v>0.02709849920227994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0291138404083968</v>
+      </c>
+      <c r="H44">
+        <v>-0.03609692814976204</v>
+      </c>
+      <c r="I44">
+        <v>0.05707761717423573</v>
+      </c>
+      <c r="J44">
+        <v>-0.06926390576074636</v>
+      </c>
+      <c r="K44">
+        <v>-0.009398898645906746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.006807182852607049</v>
+        <v>-0.003654681406586929</v>
       </c>
       <c r="C46">
-        <v>-0.05940255930426168</v>
+        <v>0.06368273519260656</v>
       </c>
       <c r="D46">
-        <v>-0.01959034237779465</v>
+        <v>0.02193062943011508</v>
       </c>
       <c r="E46">
-        <v>0.07242510858256239</v>
+        <v>0.01339022319913343</v>
       </c>
       <c r="F46">
-        <v>0.02550321302607871</v>
+        <v>0.01772217413243747</v>
       </c>
       <c r="G46">
-        <v>-0.04522282510337676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04826775782639344</v>
+      </c>
+      <c r="H46">
+        <v>-0.1157923578678762</v>
+      </c>
+      <c r="I46">
+        <v>0.01395827363525178</v>
+      </c>
+      <c r="J46">
+        <v>0.07930123142655363</v>
+      </c>
+      <c r="K46">
+        <v>-0.04110866611156685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01226547090574466</v>
+        <v>-0.02277911470940967</v>
       </c>
       <c r="C47">
-        <v>-0.1161630206878779</v>
+        <v>0.09919200334508176</v>
       </c>
       <c r="D47">
-        <v>-0.03302465975355257</v>
+        <v>0.03875722365598872</v>
       </c>
       <c r="E47">
-        <v>-0.05919135633024904</v>
+        <v>-0.0005485640308732446</v>
       </c>
       <c r="F47">
-        <v>-0.03056113152536068</v>
+        <v>-0.03495267242226555</v>
       </c>
       <c r="G47">
-        <v>-0.03975031612627527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01747753757040701</v>
+      </c>
+      <c r="H47">
+        <v>-0.07814306243933708</v>
+      </c>
+      <c r="I47">
+        <v>-0.02861774887058758</v>
+      </c>
+      <c r="J47">
+        <v>0.03261327768196496</v>
+      </c>
+      <c r="K47">
+        <v>0.0361189798984525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01844270039584156</v>
+        <v>-0.0218234180859735</v>
       </c>
       <c r="C48">
-        <v>-0.05406596902593882</v>
+        <v>0.05759511433080919</v>
       </c>
       <c r="D48">
-        <v>-0.04847875280580935</v>
+        <v>0.05044218619587516</v>
       </c>
       <c r="E48">
-        <v>0.02893501897845164</v>
+        <v>-2.594660459935176e-05</v>
       </c>
       <c r="F48">
-        <v>0.01356394474701761</v>
+        <v>0.01367303634127888</v>
       </c>
       <c r="G48">
-        <v>-0.020222389198224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.003424909011196528</v>
+      </c>
+      <c r="H48">
+        <v>-0.1050960371806956</v>
+      </c>
+      <c r="I48">
+        <v>0.03345946663211784</v>
+      </c>
+      <c r="J48">
+        <v>-0.07942534957516784</v>
+      </c>
+      <c r="K48">
+        <v>0.08122291773022904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.008334498342311867</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02095131300909903</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0001889633855634297</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.01430280628360019</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02661188742878129</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.02371354303834725</v>
+      </c>
+      <c r="H49">
+        <v>0.01839602861888471</v>
+      </c>
+      <c r="I49">
+        <v>0.03832541746668532</v>
+      </c>
+      <c r="J49">
+        <v>-0.01569324130447134</v>
+      </c>
+      <c r="K49">
+        <v>0.005908639628387928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.008337567089180008</v>
+        <v>-0.01433695956360226</v>
       </c>
       <c r="C50">
-        <v>-0.09561347360339137</v>
+        <v>0.09052418994037334</v>
       </c>
       <c r="D50">
-        <v>-0.01857645189121796</v>
+        <v>0.02245070043185431</v>
       </c>
       <c r="E50">
-        <v>-0.01764226108816267</v>
+        <v>-0.004806791359359361</v>
       </c>
       <c r="F50">
-        <v>-0.007137271611325335</v>
+        <v>-0.005030330620437933</v>
       </c>
       <c r="G50">
-        <v>0.02043890836554421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03257706318835336</v>
+      </c>
+      <c r="H50">
+        <v>-0.06311578828756277</v>
+      </c>
+      <c r="I50">
+        <v>-0.04486824008499783</v>
+      </c>
+      <c r="J50">
+        <v>0.03135666191956028</v>
+      </c>
+      <c r="K50">
+        <v>0.004211755735372546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.01189650016522385</v>
+        <v>0.004815280229495191</v>
       </c>
       <c r="C51">
-        <v>-0.06825004565850423</v>
+        <v>0.04165566260994377</v>
       </c>
       <c r="D51">
-        <v>0.02156792360425153</v>
+        <v>0.0169523373055679</v>
       </c>
       <c r="E51">
-        <v>0.09696354116271258</v>
+        <v>0.02421208637214182</v>
       </c>
       <c r="F51">
-        <v>0.007819066815266042</v>
+        <v>0.04520874801661279</v>
       </c>
       <c r="G51">
-        <v>0.03683930233560907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01291566869132874</v>
+      </c>
+      <c r="H51">
+        <v>-0.08357369103034808</v>
+      </c>
+      <c r="I51">
+        <v>0.01915598523550211</v>
+      </c>
+      <c r="J51">
+        <v>-0.1182349643527069</v>
+      </c>
+      <c r="K51">
+        <v>0.02004339235179786</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.05981783751969682</v>
+        <v>-0.05867746590416766</v>
       </c>
       <c r="C53">
-        <v>-0.1396820935011707</v>
+        <v>0.1358642605010553</v>
       </c>
       <c r="D53">
-        <v>-0.05165611498601434</v>
+        <v>0.04753708934746385</v>
       </c>
       <c r="E53">
-        <v>-0.1091279839983869</v>
+        <v>-0.02409349820982397</v>
       </c>
       <c r="F53">
-        <v>0.02980052549328047</v>
+        <v>-0.09364800230587193</v>
       </c>
       <c r="G53">
-        <v>-0.01593848827303812</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05576400824263146</v>
+      </c>
+      <c r="H53">
+        <v>0.006520416348647338</v>
+      </c>
+      <c r="I53">
+        <v>-0.04272030552256054</v>
+      </c>
+      <c r="J53">
+        <v>0.02121083934112892</v>
+      </c>
+      <c r="K53">
+        <v>0.07283520091062591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0180728869269012</v>
+        <v>-0.01746922653637826</v>
       </c>
       <c r="C54">
-        <v>-0.05787626069482982</v>
+        <v>0.07142860271853299</v>
       </c>
       <c r="D54">
-        <v>0.008648310956376476</v>
+        <v>0.002859074708012026</v>
       </c>
       <c r="E54">
-        <v>0.01366257586708659</v>
+        <v>0.0005688544496416094</v>
       </c>
       <c r="F54">
-        <v>0.03557610663358286</v>
+        <v>-0.0004036785486378925</v>
       </c>
       <c r="G54">
-        <v>-0.00838723583892031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02876627044083132</v>
+      </c>
+      <c r="H54">
+        <v>-0.06640801134330025</v>
+      </c>
+      <c r="I54">
+        <v>0.02372196402838386</v>
+      </c>
+      <c r="J54">
+        <v>0.02685839474326583</v>
+      </c>
+      <c r="K54">
+        <v>-0.01919329900204416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.04068703365658115</v>
+        <v>-0.03402736622687524</v>
       </c>
       <c r="C55">
-        <v>-0.1012494283185622</v>
+        <v>0.09328444111433959</v>
       </c>
       <c r="D55">
-        <v>-0.05811458575157849</v>
+        <v>0.04962959315736463</v>
       </c>
       <c r="E55">
-        <v>-0.06627149803067232</v>
+        <v>-0.02119486342273117</v>
       </c>
       <c r="F55">
-        <v>-0.001702472136417996</v>
+        <v>-0.07012832568881261</v>
       </c>
       <c r="G55">
-        <v>-0.0327924615877613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02580814908967663</v>
+      </c>
+      <c r="H55">
+        <v>0.004562326587490126</v>
+      </c>
+      <c r="I55">
+        <v>0.009492175252445213</v>
+      </c>
+      <c r="J55">
+        <v>0.009901432122448213</v>
+      </c>
+      <c r="K55">
+        <v>0.04951954495815417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.04767451891453824</v>
+        <v>-0.04366000396640723</v>
       </c>
       <c r="C56">
-        <v>-0.1792278794916212</v>
+        <v>0.1675643661567695</v>
       </c>
       <c r="D56">
-        <v>-0.05856221097524272</v>
+        <v>0.06895044573091258</v>
       </c>
       <c r="E56">
-        <v>-0.1490946171770809</v>
+        <v>-0.02087214229981888</v>
       </c>
       <c r="F56">
-        <v>-0.01652895896813596</v>
+        <v>-0.1427383226807323</v>
       </c>
       <c r="G56">
-        <v>-0.006742718355707225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1104438475216853</v>
+      </c>
+      <c r="H56">
+        <v>0.02617412869730086</v>
+      </c>
+      <c r="I56">
+        <v>-0.02959255643783913</v>
+      </c>
+      <c r="J56">
+        <v>-0.01282396665588381</v>
+      </c>
+      <c r="K56">
+        <v>0.05024438272161914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.04466465110966918</v>
+        <v>-0.02141874079611574</v>
       </c>
       <c r="C58">
-        <v>-0.2305906088625317</v>
+        <v>0.1773784639485276</v>
       </c>
       <c r="D58">
-        <v>0.1228656352060088</v>
+        <v>0.01516797123269201</v>
       </c>
       <c r="E58">
-        <v>0.2181430877612703</v>
+        <v>0.05535836665254957</v>
       </c>
       <c r="F58">
-        <v>0.00193028612881663</v>
+        <v>0.3056386267417322</v>
       </c>
       <c r="G58">
-        <v>0.3970977621341324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.184346015091052</v>
+      </c>
+      <c r="H58">
+        <v>0.01250652505645074</v>
+      </c>
+      <c r="I58">
+        <v>-0.01883804128144628</v>
+      </c>
+      <c r="J58">
+        <v>-0.385288386607575</v>
+      </c>
+      <c r="K58">
+        <v>-0.2607675404850313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.27827979594199</v>
+        <v>-0.286398212246358</v>
       </c>
       <c r="C59">
-        <v>0.04317838073445194</v>
+        <v>-0.04964771704474716</v>
       </c>
       <c r="D59">
-        <v>0.03596020909150979</v>
+        <v>-0.003078890540605705</v>
       </c>
       <c r="E59">
-        <v>0.02155841524523818</v>
+        <v>0.02870653571405758</v>
       </c>
       <c r="F59">
-        <v>-0.05081817297910415</v>
+        <v>0.02453781440369871</v>
       </c>
       <c r="G59">
-        <v>-0.04433839554582518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01152996592382455</v>
+      </c>
+      <c r="H59">
+        <v>0.02085024089696567</v>
+      </c>
+      <c r="I59">
+        <v>-0.03401214443455086</v>
+      </c>
+      <c r="J59">
+        <v>0.01430487178508904</v>
+      </c>
+      <c r="K59">
+        <v>0.02738675576273431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1250560559619552</v>
+        <v>-0.151130855133924</v>
       </c>
       <c r="C60">
-        <v>-0.1233439095479334</v>
+        <v>0.1429262362837863</v>
       </c>
       <c r="D60">
-        <v>-0.04509380178439972</v>
+        <v>0.03608492322273125</v>
       </c>
       <c r="E60">
-        <v>0.07396965563851506</v>
+        <v>0.03488791537033134</v>
       </c>
       <c r="F60">
-        <v>0.1066875511666218</v>
+        <v>-0.06022431910613502</v>
       </c>
       <c r="G60">
-        <v>-0.2900151703097367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2749492488506683</v>
+      </c>
+      <c r="H60">
+        <v>0.2388266376429747</v>
+      </c>
+      <c r="I60">
+        <v>0.0321735189237002</v>
+      </c>
+      <c r="J60">
+        <v>-0.01710522776438406</v>
+      </c>
+      <c r="K60">
+        <v>-0.0874025970323348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.01323286365740078</v>
+        <v>-0.0200593228188225</v>
       </c>
       <c r="C61">
-        <v>-0.09521981757432607</v>
+        <v>0.1027149702650383</v>
       </c>
       <c r="D61">
-        <v>-0.03654710537605345</v>
+        <v>0.04598442681537211</v>
       </c>
       <c r="E61">
-        <v>0.03462404030856497</v>
+        <v>0.001521724294212274</v>
       </c>
       <c r="F61">
-        <v>0.04210348855441491</v>
+        <v>-0.009081303295551124</v>
       </c>
       <c r="G61">
-        <v>-0.07517920002609331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.04905240045665069</v>
+      </c>
+      <c r="H61">
+        <v>-0.05107530974462435</v>
+      </c>
+      <c r="I61">
+        <v>0.03046063445204618</v>
+      </c>
+      <c r="J61">
+        <v>0.0235912337976426</v>
+      </c>
+      <c r="K61">
+        <v>0.04008578202688525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.001401235993223409</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.006398766647896295</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001072573813803827</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.004226161155875712</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01525394659867391</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02051618918164487</v>
+      </c>
+      <c r="H62">
+        <v>-0.006257086258543246</v>
+      </c>
+      <c r="I62">
+        <v>0.006688783491165202</v>
+      </c>
+      <c r="J62">
+        <v>0.00492617299654748</v>
+      </c>
+      <c r="K62">
+        <v>-0.002674074313713654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.006400967269653184</v>
+        <v>-0.02470138290669421</v>
       </c>
       <c r="C63">
-        <v>-0.06383841920522654</v>
+        <v>0.07243537882101346</v>
       </c>
       <c r="D63">
-        <v>-0.01402971202204</v>
+        <v>0.04770705844275466</v>
       </c>
       <c r="E63">
-        <v>0.02176985872797558</v>
+        <v>0.004747717792623711</v>
       </c>
       <c r="F63">
-        <v>0.03175838104330027</v>
+        <v>0.001860836405382131</v>
       </c>
       <c r="G63">
-        <v>-0.03015058824325673</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.02378570869817255</v>
+      </c>
+      <c r="H63">
+        <v>-0.06013275757551302</v>
+      </c>
+      <c r="I63">
+        <v>0.007955917975928727</v>
+      </c>
+      <c r="J63">
+        <v>0.0188179673068361</v>
+      </c>
+      <c r="K63">
+        <v>0.05293709616861762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.01497585781126027</v>
+        <v>-0.01964859988465273</v>
       </c>
       <c r="C64">
-        <v>-0.1029346066170929</v>
+        <v>0.09905512568006798</v>
       </c>
       <c r="D64">
-        <v>-0.06253091945719053</v>
+        <v>0.03061161236151398</v>
       </c>
       <c r="E64">
-        <v>0.03603432087626897</v>
+        <v>-0.02087084980089785</v>
       </c>
       <c r="F64">
-        <v>0.02204020580138713</v>
+        <v>0.05205458506487216</v>
       </c>
       <c r="G64">
-        <v>-0.0143763461471785</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01749603452285056</v>
+      </c>
+      <c r="H64">
+        <v>-0.02718250386974114</v>
+      </c>
+      <c r="I64">
+        <v>0.02052186538885482</v>
+      </c>
+      <c r="J64">
+        <v>0.03188311199550336</v>
+      </c>
+      <c r="K64">
+        <v>0.106818289069693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.03049725769630604</v>
+        <v>-0.03220738489984461</v>
       </c>
       <c r="C65">
-        <v>-0.0588564340925369</v>
+        <v>0.08479471675019239</v>
       </c>
       <c r="D65">
-        <v>-0.009143965488469444</v>
+        <v>0.006839815825779945</v>
       </c>
       <c r="E65">
-        <v>0.1040708819921964</v>
+        <v>-0.003674399880187322</v>
       </c>
       <c r="F65">
-        <v>0.03508045803809487</v>
+        <v>0.0726391009771154</v>
       </c>
       <c r="G65">
-        <v>-0.03424980538075515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1210213216914719</v>
+      </c>
+      <c r="H65">
+        <v>0.01183928322385716</v>
+      </c>
+      <c r="I65">
+        <v>0.0903624552794068</v>
+      </c>
+      <c r="J65">
+        <v>-0.05744887005887713</v>
+      </c>
+      <c r="K65">
+        <v>-0.02633650832911138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.01253215106199312</v>
+        <v>-0.01343677233256761</v>
       </c>
       <c r="C66">
-        <v>-0.161640564492091</v>
+        <v>0.1651686674753453</v>
       </c>
       <c r="D66">
-        <v>0.008001242773156551</v>
+        <v>0.03256567201641473</v>
       </c>
       <c r="E66">
-        <v>0.1139529395375002</v>
+        <v>0.01971129608291412</v>
       </c>
       <c r="F66">
-        <v>0.02795797421498135</v>
+        <v>0.03638858722122946</v>
       </c>
       <c r="G66">
-        <v>-0.05504283288964307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03882929610310057</v>
+      </c>
+      <c r="H66">
+        <v>-0.04196301069835567</v>
+      </c>
+      <c r="I66">
+        <v>0.04356724097338861</v>
+      </c>
+      <c r="J66">
+        <v>-0.009868415350899853</v>
+      </c>
+      <c r="K66">
+        <v>0.03302679389475136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02606233659234904</v>
+        <v>-0.02242654942603813</v>
       </c>
       <c r="C67">
-        <v>-0.03604716247495555</v>
+        <v>0.05539526631308749</v>
       </c>
       <c r="D67">
-        <v>-0.05034149498339706</v>
+        <v>0.03694021341095698</v>
       </c>
       <c r="E67">
-        <v>-0.002193608122460927</v>
+        <v>-0.02864459976509937</v>
       </c>
       <c r="F67">
-        <v>0.02633070871792095</v>
+        <v>0.001309630449595992</v>
       </c>
       <c r="G67">
-        <v>-0.02284604156054031</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02906261418076573</v>
+      </c>
+      <c r="H67">
+        <v>-0.0552733193316801</v>
+      </c>
+      <c r="I67">
+        <v>-0.04779849808554433</v>
+      </c>
+      <c r="J67">
+        <v>0.04310622482740616</v>
+      </c>
+      <c r="K67">
+        <v>0.0423658030292992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2717293445971231</v>
+        <v>-0.2932442790956011</v>
       </c>
       <c r="C68">
-        <v>0.06624174537151822</v>
+        <v>-0.05750494477191608</v>
       </c>
       <c r="D68">
-        <v>0.02126630906737793</v>
+        <v>-0.02904113097311564</v>
       </c>
       <c r="E68">
-        <v>-0.006912299914621466</v>
+        <v>0.01569349656810717</v>
       </c>
       <c r="F68">
-        <v>-0.0172544103881356</v>
+        <v>0.03191282501605459</v>
       </c>
       <c r="G68">
-        <v>0.03162656984748722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02929389755184189</v>
+      </c>
+      <c r="H68">
+        <v>0.01238040355430492</v>
+      </c>
+      <c r="I68">
+        <v>-0.05243366750239072</v>
+      </c>
+      <c r="J68">
+        <v>-0.01039200554680524</v>
+      </c>
+      <c r="K68">
+        <v>0.02426145885337394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01183367915099858</v>
+        <v>-0.009008419991186831</v>
       </c>
       <c r="C69">
-        <v>-0.1035759531864223</v>
+        <v>0.0761736142275509</v>
       </c>
       <c r="D69">
-        <v>-0.05453877148554827</v>
+        <v>0.02721284229213294</v>
       </c>
       <c r="E69">
-        <v>-0.04104013147728727</v>
+        <v>-0.003745041806219329</v>
       </c>
       <c r="F69">
-        <v>0.003941894025394343</v>
+        <v>-0.01706797562838166</v>
       </c>
       <c r="G69">
-        <v>0.0006295624902386017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0005083375992360898</v>
+      </c>
+      <c r="H69">
+        <v>-0.05924214691391576</v>
+      </c>
+      <c r="I69">
+        <v>-0.02420427638947393</v>
+      </c>
+      <c r="J69">
+        <v>-0.0001717428397852586</v>
+      </c>
+      <c r="K69">
+        <v>0.04187730930186633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2795759345043288</v>
+        <v>-0.2752140184329649</v>
       </c>
       <c r="C71">
-        <v>0.08083455044294194</v>
+        <v>-0.07939236396608709</v>
       </c>
       <c r="D71">
-        <v>0.02527995145967233</v>
+        <v>-0.01641043968213012</v>
       </c>
       <c r="E71">
-        <v>0.0122155059296026</v>
+        <v>-0.01257474142393142</v>
       </c>
       <c r="F71">
-        <v>0.01509631102598134</v>
+        <v>0.0487698714793262</v>
       </c>
       <c r="G71">
-        <v>0.02712403420998019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02535953708751858</v>
+      </c>
+      <c r="H71">
+        <v>-0.04724398179607268</v>
+      </c>
+      <c r="I71">
+        <v>-0.1209569009128548</v>
+      </c>
+      <c r="J71">
+        <v>-0.05394442368467695</v>
+      </c>
+      <c r="K71">
+        <v>0.05375315863282629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.03991540931125168</v>
+        <v>-0.05550229545560412</v>
       </c>
       <c r="C72">
-        <v>-0.1527647161060784</v>
+        <v>0.1458812522050403</v>
       </c>
       <c r="D72">
-        <v>-0.02331099849542383</v>
+        <v>0.02443883744539247</v>
       </c>
       <c r="E72">
-        <v>0.1027634601243004</v>
+        <v>0.0004460789159996666</v>
       </c>
       <c r="F72">
-        <v>0.0893880800241643</v>
+        <v>0.01210795453466113</v>
       </c>
       <c r="G72">
-        <v>-0.03942409477165822</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.06100288194707723</v>
+      </c>
+      <c r="H72">
+        <v>0.03198424564600577</v>
+      </c>
+      <c r="I72">
+        <v>0.0963351562133118</v>
+      </c>
+      <c r="J72">
+        <v>-0.04961740916707788</v>
+      </c>
+      <c r="K72">
+        <v>-0.01367672165646587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.08980096179309692</v>
+        <v>-0.1519685397807632</v>
       </c>
       <c r="C73">
-        <v>-0.1501615081687419</v>
+        <v>0.1924263257259866</v>
       </c>
       <c r="D73">
-        <v>-0.07452033174275445</v>
+        <v>0.06648304309885879</v>
       </c>
       <c r="E73">
-        <v>0.0609209790912837</v>
+        <v>0.001688436655082121</v>
       </c>
       <c r="F73">
-        <v>0.1656849844230878</v>
+        <v>-0.1443024124400653</v>
       </c>
       <c r="G73">
-        <v>-0.3731599988800781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.4236017660485735</v>
+      </c>
+      <c r="H73">
+        <v>0.3108018179926824</v>
+      </c>
+      <c r="I73">
+        <v>-0.06660960025626061</v>
+      </c>
+      <c r="J73">
+        <v>-0.1006924116452332</v>
+      </c>
+      <c r="K73">
+        <v>-0.07199885146269397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.02208384330441849</v>
+        <v>-0.03690984923178059</v>
       </c>
       <c r="C74">
-        <v>-0.1065036655777997</v>
+        <v>0.105966025743822</v>
       </c>
       <c r="D74">
-        <v>-0.06382919745927834</v>
+        <v>0.04062631823287421</v>
       </c>
       <c r="E74">
-        <v>-0.08495670267485565</v>
+        <v>-0.02269403205815815</v>
       </c>
       <c r="F74">
-        <v>-0.009401655971571238</v>
+        <v>-0.06895081965304492</v>
       </c>
       <c r="G74">
-        <v>-0.0128759324802431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.03692905050987531</v>
+      </c>
+      <c r="H74">
+        <v>-0.006400919132241446</v>
+      </c>
+      <c r="I74">
+        <v>0.001912701765116379</v>
+      </c>
+      <c r="J74">
+        <v>-0.01130219198616107</v>
+      </c>
+      <c r="K74">
+        <v>0.06846382663544354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.07811215948156983</v>
+        <v>-0.06387406191403525</v>
       </c>
       <c r="C75">
-        <v>-0.1814826976740942</v>
+        <v>0.1859560155904819</v>
       </c>
       <c r="D75">
-        <v>-0.1002816188630871</v>
+        <v>0.07643076843620852</v>
       </c>
       <c r="E75">
-        <v>-0.2367321954093872</v>
+        <v>-0.1118390507981527</v>
       </c>
       <c r="F75">
-        <v>-0.01933262026955236</v>
+        <v>-0.1735536081218807</v>
       </c>
       <c r="G75">
-        <v>0.05778258166100613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1746493873599861</v>
+      </c>
+      <c r="H75">
+        <v>0.02048764130310468</v>
+      </c>
+      <c r="I75">
+        <v>-0.1308306735206795</v>
+      </c>
+      <c r="J75">
+        <v>0.07315083774355501</v>
+      </c>
+      <c r="K75">
+        <v>0.06087361619350113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.04692757084883107</v>
+        <v>-0.04190511903719797</v>
       </c>
       <c r="C76">
-        <v>-0.126272920630734</v>
+        <v>0.1333187487010073</v>
       </c>
       <c r="D76">
-        <v>-0.05959297775077491</v>
+        <v>0.0636813426025115</v>
       </c>
       <c r="E76">
-        <v>-0.1045087534781841</v>
+        <v>-0.03805795176951488</v>
       </c>
       <c r="F76">
-        <v>-0.004776705510420505</v>
+        <v>-0.1015692605869694</v>
       </c>
       <c r="G76">
-        <v>-0.05643338872951659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04309634697655337</v>
+      </c>
+      <c r="H76">
+        <v>0.0007439462178156587</v>
+      </c>
+      <c r="I76">
+        <v>0.0008506923180241517</v>
+      </c>
+      <c r="J76">
+        <v>0.03027637811911761</v>
+      </c>
+      <c r="K76">
+        <v>0.1453376706538001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.0847168833630477</v>
+        <v>-0.04679999021653641</v>
       </c>
       <c r="C77">
-        <v>-0.2151966927797456</v>
+        <v>0.3204350543778796</v>
       </c>
       <c r="D77">
-        <v>0.8736795196846635</v>
+        <v>-0.9324790617291324</v>
       </c>
       <c r="E77">
-        <v>-0.290027486283526</v>
+        <v>-0.06503345226362016</v>
       </c>
       <c r="F77">
-        <v>0.1821415323472202</v>
+        <v>-0.06060297473464289</v>
       </c>
       <c r="G77">
-        <v>-0.08290377607579201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.003862990535181451</v>
+      </c>
+      <c r="H77">
+        <v>-0.05137940353235514</v>
+      </c>
+      <c r="I77">
+        <v>-0.00322036067727255</v>
+      </c>
+      <c r="J77">
+        <v>0.002566019010756237</v>
+      </c>
+      <c r="K77">
+        <v>0.007829746905718618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.05652280079970532</v>
+        <v>-0.0373095836624148</v>
       </c>
       <c r="C78">
-        <v>-0.1715450646112203</v>
+        <v>0.1288073286175377</v>
       </c>
       <c r="D78">
-        <v>-0.05518683427879655</v>
+        <v>0.08641007251844243</v>
       </c>
       <c r="E78">
-        <v>0.02638389088467595</v>
+        <v>0.029702205642631</v>
       </c>
       <c r="F78">
-        <v>-0.1606916849884384</v>
+        <v>-0.03555173206210009</v>
       </c>
       <c r="G78">
-        <v>0.02451101776976472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1177376052302961</v>
+      </c>
+      <c r="H78">
+        <v>-0.07488808791061717</v>
+      </c>
+      <c r="I78">
+        <v>0.1446315521004333</v>
+      </c>
+      <c r="J78">
+        <v>-0.4665822688847763</v>
+      </c>
+      <c r="K78">
+        <v>0.03009399547562907</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.05313381908210846</v>
+        <v>-0.05768181955751869</v>
       </c>
       <c r="C79">
-        <v>-0.2136371371918833</v>
+        <v>0.1648313229895542</v>
       </c>
       <c r="D79">
-        <v>-0.1154856188893403</v>
+        <v>0.05928121517587795</v>
       </c>
       <c r="E79">
-        <v>-0.2224656304258081</v>
+        <v>-0.03592804719051562</v>
       </c>
       <c r="F79">
-        <v>-0.1228911000347381</v>
+        <v>-0.1505634055810918</v>
       </c>
       <c r="G79">
-        <v>0.04932006351639898</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2121685474373956</v>
+      </c>
+      <c r="H79">
+        <v>-0.0108453251848119</v>
+      </c>
+      <c r="I79">
+        <v>-0.0859172372828864</v>
+      </c>
+      <c r="J79">
+        <v>-0.02762184550626186</v>
+      </c>
+      <c r="K79">
+        <v>0.03087877369581285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01768267602661669</v>
+        <v>-0.0204035829594027</v>
       </c>
       <c r="C80">
-        <v>-0.05568023653089042</v>
+        <v>0.05390382688979971</v>
       </c>
       <c r="D80">
-        <v>-0.04540490839588683</v>
+        <v>0.03956272021570134</v>
       </c>
       <c r="E80">
-        <v>-0.005552733034940456</v>
+        <v>0.05266512908139958</v>
       </c>
       <c r="F80">
-        <v>-0.01277943382587994</v>
+        <v>0.01205426183012176</v>
       </c>
       <c r="G80">
-        <v>-0.01881042735518857</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.03848975312829902</v>
+      </c>
+      <c r="H80">
+        <v>0.03519012176160521</v>
+      </c>
+      <c r="I80">
+        <v>-0.05610724409292735</v>
+      </c>
+      <c r="J80">
+        <v>0.08650551251594719</v>
+      </c>
+      <c r="K80">
+        <v>0.04353307065901403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01761518873748719</v>
+        <v>-0.01670890305240555</v>
       </c>
       <c r="C81">
-        <v>-0.1159684668310101</v>
+        <v>0.1109631517191434</v>
       </c>
       <c r="D81">
-        <v>-0.07829502768461326</v>
+        <v>0.045728148034756</v>
       </c>
       <c r="E81">
-        <v>-0.1684920459821849</v>
+        <v>-0.02496154702954152</v>
       </c>
       <c r="F81">
-        <v>-0.02520944813151309</v>
+        <v>-0.09201439689489653</v>
       </c>
       <c r="G81">
-        <v>-0.0122400370388435</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1038065396537662</v>
+      </c>
+      <c r="H81">
+        <v>-0.05426469460069114</v>
+      </c>
+      <c r="I81">
+        <v>-0.06286402016771744</v>
+      </c>
+      <c r="J81">
+        <v>0.02842364465669298</v>
+      </c>
+      <c r="K81">
+        <v>0.09992865922686853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.04761996392550202</v>
+        <v>-0.04721262283915734</v>
       </c>
       <c r="C82">
-        <v>-0.1223689337640841</v>
+        <v>0.1183166859231734</v>
       </c>
       <c r="D82">
-        <v>-0.08781382693608072</v>
+        <v>0.06384688600300761</v>
       </c>
       <c r="E82">
-        <v>-0.1152665336758929</v>
+        <v>-0.02850796574793921</v>
       </c>
       <c r="F82">
-        <v>0.01241615408295614</v>
+        <v>-0.102431694889636</v>
       </c>
       <c r="G82">
-        <v>-0.04804551054802222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.06374620357437438</v>
+      </c>
+      <c r="H82">
+        <v>-0.01717930670069865</v>
+      </c>
+      <c r="I82">
+        <v>-0.02459978542178495</v>
+      </c>
+      <c r="J82">
+        <v>0.0114683044772044</v>
+      </c>
+      <c r="K82">
+        <v>0.1153786846047113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.005658403961536443</v>
+        <v>0.001931809041644122</v>
       </c>
       <c r="C83">
-        <v>-0.03996601522679614</v>
+        <v>0.003958141969166828</v>
       </c>
       <c r="D83">
-        <v>0.1925854412716781</v>
+        <v>-0.05998707911630874</v>
       </c>
       <c r="E83">
-        <v>0.09223435010230914</v>
+        <v>0.9320044810644496</v>
       </c>
       <c r="F83">
-        <v>-0.8512218073541002</v>
+        <v>-0.2135465420092527</v>
       </c>
       <c r="G83">
-        <v>-0.3293661088259361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1202109196008123</v>
+      </c>
+      <c r="H83">
+        <v>0.08620066656003303</v>
+      </c>
+      <c r="I83">
+        <v>0.04882026129492915</v>
+      </c>
+      <c r="J83">
+        <v>0.01843374318180624</v>
+      </c>
+      <c r="K83">
+        <v>0.09376097094280095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.002562918556939499</v>
+        <v>0.0001802754699825925</v>
       </c>
       <c r="C84">
-        <v>-0.04227610215500098</v>
+        <v>0.04185200199020743</v>
       </c>
       <c r="D84">
-        <v>-0.01416167447950924</v>
+        <v>0.05710067276529981</v>
       </c>
       <c r="E84">
-        <v>0.0803934607936941</v>
+        <v>-0.004087817950377929</v>
       </c>
       <c r="F84">
-        <v>0.02482009917093118</v>
+        <v>0.0904467015165635</v>
       </c>
       <c r="G84">
-        <v>0.1437741281479375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.05486261821680295</v>
+      </c>
+      <c r="H84">
+        <v>-0.07364617155714792</v>
+      </c>
+      <c r="I84">
+        <v>0.1108403717005588</v>
+      </c>
+      <c r="J84">
+        <v>0.06988742161786191</v>
+      </c>
+      <c r="K84">
+        <v>0.06720966077186628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.04368417345243968</v>
+        <v>-0.03135547704132752</v>
       </c>
       <c r="C85">
-        <v>-0.1537038300658313</v>
+        <v>0.1310284726276814</v>
       </c>
       <c r="D85">
-        <v>-0.09356593568625053</v>
+        <v>0.07177683398904898</v>
       </c>
       <c r="E85">
-        <v>-0.2112429804677642</v>
+        <v>-0.05657818301181144</v>
       </c>
       <c r="F85">
-        <v>-0.06347026210210772</v>
+        <v>-0.1810669119351153</v>
       </c>
       <c r="G85">
-        <v>0.01806397202070627</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.139573824251634</v>
+      </c>
+      <c r="H85">
+        <v>0.00872130875640721</v>
+      </c>
+      <c r="I85">
+        <v>-0.08540882133606746</v>
+      </c>
+      <c r="J85">
+        <v>0.0534066057129881</v>
+      </c>
+      <c r="K85">
+        <v>0.1520695591289009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.02641143506758953</v>
+        <v>-0.01588299084888083</v>
       </c>
       <c r="C86">
-        <v>-0.05852852558772557</v>
+        <v>0.07222302350581042</v>
       </c>
       <c r="D86">
-        <v>0.05334770404231503</v>
+        <v>0.0218005226650781</v>
       </c>
       <c r="E86">
-        <v>0.06583047854999925</v>
+        <v>0.01631211677851549</v>
       </c>
       <c r="F86">
-        <v>0.05264558685826806</v>
+        <v>0.06661438789631512</v>
       </c>
       <c r="G86">
-        <v>0.0308614839103552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08761103304383809</v>
+      </c>
+      <c r="H86">
+        <v>-0.05285231608698411</v>
+      </c>
+      <c r="I86">
+        <v>-0.1282612994577741</v>
+      </c>
+      <c r="J86">
+        <v>-0.1400728340620606</v>
+      </c>
+      <c r="K86">
+        <v>-0.02414855653893992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.06474897179218952</v>
+        <v>-0.02465030103336565</v>
       </c>
       <c r="C87">
-        <v>-0.1361758085766164</v>
+        <v>0.1229487793655088</v>
       </c>
       <c r="D87">
-        <v>0.005513454706257352</v>
+        <v>0.007812284422179975</v>
       </c>
       <c r="E87">
-        <v>0.1143110583784474</v>
+        <v>0.01737276541908311</v>
       </c>
       <c r="F87">
-        <v>-0.009792786379292876</v>
+        <v>0.08948568891646722</v>
       </c>
       <c r="G87">
-        <v>0.004492996350387952</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.01504204413894247</v>
+      </c>
+      <c r="H87">
+        <v>-0.01345272979805802</v>
+      </c>
+      <c r="I87">
+        <v>0.1029954216544934</v>
+      </c>
+      <c r="J87">
+        <v>-0.08750069670564066</v>
+      </c>
+      <c r="K87">
+        <v>0.09442591056638176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.01444287207236093</v>
+        <v>-0.03820928257117784</v>
       </c>
       <c r="C88">
-        <v>-0.06453385771127633</v>
+        <v>0.07672537063634252</v>
       </c>
       <c r="D88">
-        <v>-0.0571284913809118</v>
+        <v>0.04043583016009493</v>
       </c>
       <c r="E88">
-        <v>-0.03757292244647146</v>
+        <v>-0.01598882797859654</v>
       </c>
       <c r="F88">
-        <v>0.03779324610276831</v>
+        <v>-0.004591024909139278</v>
       </c>
       <c r="G88">
-        <v>-0.02805961658876092</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02478967729471117</v>
+      </c>
+      <c r="H88">
+        <v>0.0003347327336409427</v>
+      </c>
+      <c r="I88">
+        <v>-0.02782327530406804</v>
+      </c>
+      <c r="J88">
+        <v>0.08863111739499818</v>
+      </c>
+      <c r="K88">
+        <v>0.08039789314557198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3895062825051243</v>
+        <v>-0.3933386670341683</v>
       </c>
       <c r="C89">
-        <v>0.1157545998068833</v>
+        <v>-0.110359167207212</v>
       </c>
       <c r="D89">
-        <v>-0.107314257303694</v>
+        <v>-0.02297149711097746</v>
       </c>
       <c r="E89">
-        <v>0.05501344611092983</v>
+        <v>-0.009301775990695222</v>
       </c>
       <c r="F89">
-        <v>-0.0557344374197777</v>
+        <v>0.06331533989135704</v>
       </c>
       <c r="G89">
-        <v>0.06791964684095321</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02971106502272559</v>
+      </c>
+      <c r="H89">
+        <v>0.01079479942999147</v>
+      </c>
+      <c r="I89">
+        <v>0.7336864040902301</v>
+      </c>
+      <c r="J89">
+        <v>0.07409561518313788</v>
+      </c>
+      <c r="K89">
+        <v>0.025024988433827</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.2950153717986586</v>
+        <v>-0.3120681776386533</v>
       </c>
       <c r="C90">
-        <v>0.05281093296112159</v>
+        <v>-0.07079212280100285</v>
       </c>
       <c r="D90">
-        <v>0.006134283383494047</v>
+        <v>-0.009428216630991618</v>
       </c>
       <c r="E90">
-        <v>0.03264789453565094</v>
+        <v>0.02691695871005129</v>
       </c>
       <c r="F90">
-        <v>-0.04977169622934454</v>
+        <v>0.01823021656226667</v>
       </c>
       <c r="G90">
-        <v>-0.02478117915156187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.016209788681887</v>
+      </c>
+      <c r="H90">
+        <v>-0.01183356075800267</v>
+      </c>
+      <c r="I90">
+        <v>-0.0884568366981614</v>
+      </c>
+      <c r="J90">
+        <v>-0.02095745678235721</v>
+      </c>
+      <c r="K90">
+        <v>0.001232622140186852</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.04539462403086005</v>
+        <v>-0.05283829060300961</v>
       </c>
       <c r="C91">
-        <v>-0.1217607486958963</v>
+        <v>0.1063665222697193</v>
       </c>
       <c r="D91">
-        <v>-0.04760098850615895</v>
+        <v>0.03720508270995031</v>
       </c>
       <c r="E91">
-        <v>-0.1238021283428477</v>
+        <v>0.004123963272626527</v>
       </c>
       <c r="F91">
-        <v>-0.03479738245813813</v>
+        <v>-0.09591451563825608</v>
       </c>
       <c r="G91">
-        <v>0.002490091245224094</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07575944678137558</v>
+      </c>
+      <c r="H91">
+        <v>0.01064656741349031</v>
+      </c>
+      <c r="I91">
+        <v>-0.01377613121258879</v>
+      </c>
+      <c r="J91">
+        <v>0.0473930664870487</v>
+      </c>
+      <c r="K91">
+        <v>0.04867682576585773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.370235949739518</v>
+        <v>-0.3532865240841491</v>
       </c>
       <c r="C92">
-        <v>0.1409099713454303</v>
+        <v>-0.1317586886229025</v>
       </c>
       <c r="D92">
-        <v>0.01366818456599602</v>
+        <v>-0.04340971444625769</v>
       </c>
       <c r="E92">
-        <v>0.01764970244330859</v>
+        <v>-0.02699358978154853</v>
       </c>
       <c r="F92">
-        <v>0.09579823658089157</v>
+        <v>0.06768013761060976</v>
       </c>
       <c r="G92">
-        <v>0.04494804243567622</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02884243558431725</v>
+      </c>
+      <c r="H92">
+        <v>-0.08301603181061894</v>
+      </c>
+      <c r="I92">
+        <v>-0.1646779937957927</v>
+      </c>
+      <c r="J92">
+        <v>-0.002297397362559511</v>
+      </c>
+      <c r="K92">
+        <v>-0.0630796307861636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.2978643396104061</v>
+        <v>-0.3086382253482449</v>
       </c>
       <c r="C93">
-        <v>0.09797767682179881</v>
+        <v>-0.1129883783854955</v>
       </c>
       <c r="D93">
-        <v>-0.02313622095336183</v>
+        <v>0.003400832289279563</v>
       </c>
       <c r="E93">
-        <v>0.02578296657312429</v>
+        <v>0.008643388866394635</v>
       </c>
       <c r="F93">
-        <v>-0.03159728864340016</v>
+        <v>0.02536206075995592</v>
       </c>
       <c r="G93">
-        <v>0.04787576704901152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05558434071974529</v>
+      </c>
+      <c r="H93">
+        <v>-0.03583139268340566</v>
+      </c>
+      <c r="I93">
+        <v>-0.1101145406924556</v>
+      </c>
+      <c r="J93">
+        <v>-0.01292492846543299</v>
+      </c>
+      <c r="K93">
+        <v>0.03875192954155374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09251486928761045</v>
+        <v>-0.07847260271131783</v>
       </c>
       <c r="C94">
-        <v>-0.2283804973845435</v>
+        <v>0.1866740025535325</v>
       </c>
       <c r="D94">
-        <v>-0.1605746759287512</v>
+        <v>0.08914120536722502</v>
       </c>
       <c r="E94">
-        <v>-0.3864585046063549</v>
+        <v>-0.1009517703812509</v>
       </c>
       <c r="F94">
-        <v>-0.1437776822695835</v>
+        <v>-0.3044242083802781</v>
       </c>
       <c r="G94">
-        <v>0.3127538323043565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4059838537511859</v>
+      </c>
+      <c r="H94">
+        <v>0.1332742774680259</v>
+      </c>
+      <c r="I94">
+        <v>0.1580835690349574</v>
+      </c>
+      <c r="J94">
+        <v>0.2625323318286846</v>
+      </c>
+      <c r="K94">
+        <v>-0.5414444412757352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02872569710493209</v>
+        <v>-0.03695438331926178</v>
       </c>
       <c r="C95">
-        <v>-0.0710450953546692</v>
+        <v>0.1245244031942745</v>
       </c>
       <c r="D95">
-        <v>-0.01947774692096041</v>
+        <v>0.03694911798995977</v>
       </c>
       <c r="E95">
-        <v>0.000833246285322613</v>
+        <v>-0.04202505966030046</v>
       </c>
       <c r="F95">
-        <v>0.06425044232168921</v>
+        <v>-0.004314839820294139</v>
       </c>
       <c r="G95">
-        <v>-0.199325044508202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1257889311954492</v>
+      </c>
+      <c r="H95">
+        <v>-0.06923388317951117</v>
+      </c>
+      <c r="I95">
+        <v>0.1367957807040897</v>
+      </c>
+      <c r="J95">
+        <v>0.179448285455805</v>
+      </c>
+      <c r="K95">
+        <v>0.3779859424407924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01007257298123876</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01536729761322045</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01811228716598393</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.02708940372181715</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.03512860899911808</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04322010530840073</v>
+      </c>
+      <c r="H97">
+        <v>-0.001693526232194921</v>
+      </c>
+      <c r="I97">
+        <v>0.02302672465809853</v>
+      </c>
+      <c r="J97">
+        <v>-0.0123339955716747</v>
+      </c>
+      <c r="K97">
+        <v>-0.0125188399240986</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08837140967278018</v>
+        <v>-0.1325407644267798</v>
       </c>
       <c r="C98">
-        <v>-0.1467385263640709</v>
+        <v>0.1585941037467427</v>
       </c>
       <c r="D98">
-        <v>-0.06736507663734988</v>
+        <v>0.07834508767176694</v>
       </c>
       <c r="E98">
-        <v>0.08244323670856327</v>
+        <v>0.002298520359272553</v>
       </c>
       <c r="F98">
-        <v>0.09980164647237851</v>
+        <v>-0.1220596192040709</v>
       </c>
       <c r="G98">
-        <v>-0.2253515099982501</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3617691599773263</v>
+      </c>
+      <c r="H98">
+        <v>0.3269816641238962</v>
+      </c>
+      <c r="I98">
+        <v>-0.08522607077581697</v>
+      </c>
+      <c r="J98">
+        <v>-0.1073149299534468</v>
+      </c>
+      <c r="K98">
+        <v>-0.1949206920459191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.004403422630263623</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.02074796128718258</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004980872852089025</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.01251262430337355</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.02631902265168696</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.005032973759757988</v>
+      </c>
+      <c r="H99">
+        <v>-0.07680358730398811</v>
+      </c>
+      <c r="I99">
+        <v>0.0255977011305787</v>
+      </c>
+      <c r="J99">
+        <v>-0.01246383343957603</v>
+      </c>
+      <c r="K99">
+        <v>-0.1719065330858081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.01809780016476452</v>
+        <v>-0.01327904679285952</v>
       </c>
       <c r="C101">
-        <v>-0.05313135319020894</v>
+        <v>0.07507336325409632</v>
       </c>
       <c r="D101">
-        <v>-0.009237571882028481</v>
+        <v>0.03919872692192723</v>
       </c>
       <c r="E101">
-        <v>0.1115105068793476</v>
+        <v>0.0757725631222803</v>
       </c>
       <c r="F101">
-        <v>0.03329234029632051</v>
+        <v>0.0694849599073617</v>
       </c>
       <c r="G101">
-        <v>-0.07720604637034952</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1429949580577377</v>
+      </c>
+      <c r="H101">
+        <v>-0.2980419344388579</v>
+      </c>
+      <c r="I101">
+        <v>0.04880288754127186</v>
+      </c>
+      <c r="J101">
+        <v>0.1637374048574421</v>
+      </c>
+      <c r="K101">
+        <v>-0.2501891503521243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01781065333179777</v>
+        <v>-0.005480341879889992</v>
       </c>
       <c r="C102">
-        <v>-0.07188132050773183</v>
+        <v>0.03227953193454268</v>
       </c>
       <c r="D102">
-        <v>-0.02546806363424431</v>
+        <v>0.009324154381857816</v>
       </c>
       <c r="E102">
-        <v>-0.05676644434142349</v>
+        <v>0.0009094507331490927</v>
       </c>
       <c r="F102">
-        <v>-0.02997231786501445</v>
+        <v>-0.02858759278240337</v>
       </c>
       <c r="G102">
-        <v>-0.001653911912517446</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03736087963146763</v>
+      </c>
+      <c r="H102">
+        <v>-0.008867834410018502</v>
+      </c>
+      <c r="I102">
+        <v>0.01769767393701023</v>
+      </c>
+      <c r="J102">
+        <v>-0.01263756213810082</v>
+      </c>
+      <c r="K102">
+        <v>-0.01850037622110719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
